--- a/interview armour budgett.xlsx
+++ b/interview armour budgett.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eilidh\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eilidh\Documents\GitHub\Interview_Armour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C1555E-6B85-479F-B8B8-CACCE25476E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDB773-D778-49CC-A8A4-1132E3B39FA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E714FC1-DCA5-48B7-8CF1-557A87F09F23}"/>
+    <workbookView xWindow="19932" yWindow="4932" windowWidth="6168" windowHeight="5208" xr2:uid="{5E714FC1-DCA5-48B7-8CF1-557A87F09F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">Budget - Interview armour </t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Neoprene</t>
+  </si>
+  <si>
+    <t>elastic</t>
+  </si>
+  <si>
+    <t>buckle clips</t>
+  </si>
+  <si>
+    <t>slide buckles</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360AA32C-0A72-4738-9C28-EF2D81EDD76E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,22 +542,61 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1.48</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D10" si="1">B9*C9</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1.54</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <f>SUM(D4:D8)</f>
-        <v>32.822000000000003</v>
-      </c>
-      <c r="E9">
-        <f>75-D9</f>
-        <v>42.177999999999997</v>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>39.841999999999999</v>
+      </c>
+      <c r="E11">
+        <f>75-D11</f>
+        <v>35.158000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/interview armour budgett.xlsx
+++ b/interview armour budgett.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eilidh\Documents\GitHub\Interview_Armour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDB773-D778-49CC-A8A4-1132E3B39FA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF63C4-D324-4524-8D1E-8B58F5B3E12B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19932" yWindow="4932" windowWidth="6168" windowHeight="5208" xr2:uid="{5E714FC1-DCA5-48B7-8CF1-557A87F09F23}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">Budget - Interview armour </t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>slide buckles</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/dp/9553548296/?coliid=I1WUO41FZR9AN4&amp;colid=4EYVC5LB6BFN&amp;psc=0&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/dp/B00MNKUIT8/?coliid=IG139WPE5GBEE&amp;colid=4EYVC5LB6BFN&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/dp/B00J3YAK2M/?coliid=IZ7CDRDN889D&amp;colid=4EYVC5LB6BFN&amp;psc=0&amp;ref_=lv_ov_lig_dp_it</t>
   </si>
 </sst>
 </file>
@@ -432,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360AA32C-0A72-4738-9C28-EF2D81EDD76E}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +564,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -570,6 +582,9 @@
         <f t="shared" ref="D9:D10" si="1">B9*C9</f>
         <v>1.48</v>
       </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -584,6 +599,9 @@
       <c r="D10">
         <f t="shared" si="1"/>
         <v>1.54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/interview armour budgett.xlsx
+++ b/interview armour budgett.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eilidh\Documents\GitHub\Interview_Armour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eilidh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF63C4-D324-4524-8D1E-8B58F5B3E12B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB92216-43AE-4A67-B38F-930ACD97D1C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19932" yWindow="4932" windowWidth="6168" windowHeight="5208" xr2:uid="{5E714FC1-DCA5-48B7-8CF1-557A87F09F23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E714FC1-DCA5-48B7-8CF1-557A87F09F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">Budget - Interview armour </t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>https://www.amazon.co.uk/dp/B00J3YAK2M/?coliid=IZ7CDRDN889D&amp;colid=4EYVC5LB6BFN&amp;psc=0&amp;ref_=lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>TSL2651T</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/ambient-light-sensors/6424367/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/product-detail/en/sparkfun-electronics/BOB-00717/1568-1098-ND/5318740?utm_adgroup=&amp;mkwid=ss3oA964O&amp;pcrid=337808698799&amp;pkw=&amp;pmt=&amp;pdv=c&amp;productid=5318740&amp;slid=&amp;gclid=CjwKCAjw-ZvlBRBbEiwANw9UWrJUGs_IqFlKc6eegGW9viSX1XXCmb91nn1dUuqMT3nWPoyzsXy8kBoCCQAQAvD_BwE</t>
+  </si>
+  <si>
+    <t>mount adaptors</t>
+  </si>
+  <si>
+    <t>IR LEDs</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/ir-leds/6997663/</t>
   </si>
 </sst>
 </file>
@@ -439,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360AA32C-0A72-4738-9C28-EF2D81EDD76E}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D10" si="1">B9*C9</f>
+        <f t="shared" ref="D9:D13" si="1">B9*C9</f>
         <v>1.48</v>
       </c>
       <c r="F9" t="s">
@@ -605,16 +623,70 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <f>SUM(D4:D10)</f>
-        <v>39.841999999999999</v>
-      </c>
-      <c r="E11">
-        <f>75-D11</f>
-        <v>35.158000000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0.73</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>3.65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D4:D13)</f>
+        <v>60.362000000000002</v>
+      </c>
+      <c r="E14">
+        <f>75-D14</f>
+        <v>14.637999999999998</v>
       </c>
     </row>
   </sheetData>
